--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Ltf</t>
+  </si>
+  <si>
+    <t>Lrp11</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ltf</t>
-  </si>
-  <si>
-    <t>Lrp11</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -528,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1832233333333333</v>
+        <v>0.03556333333333333</v>
       </c>
       <c r="H2">
-        <v>0.54967</v>
+        <v>0.10669</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8769393333333332</v>
+        <v>0.8541956666666667</v>
       </c>
       <c r="N2">
-        <v>2.630818</v>
+        <v>2.562587</v>
       </c>
       <c r="O2">
-        <v>0.1960036625642867</v>
+        <v>0.2037115339104792</v>
       </c>
       <c r="P2">
-        <v>0.1960036625642867</v>
+        <v>0.2037115339104792</v>
       </c>
       <c r="Q2">
-        <v>0.1606757477844444</v>
+        <v>0.03037804522555555</v>
       </c>
       <c r="R2">
-        <v>1.44608173006</v>
+        <v>0.27340240703</v>
       </c>
       <c r="S2">
-        <v>0.1960036625642867</v>
+        <v>0.2037115339104792</v>
       </c>
       <c r="T2">
-        <v>0.1960036625642867</v>
+        <v>0.2037115339104792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1832233333333333</v>
+        <v>0.03556333333333333</v>
       </c>
       <c r="H3">
-        <v>0.54967</v>
+        <v>0.10669</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>4.468627</v>
       </c>
       <c r="O3">
-        <v>0.3329258271129591</v>
+        <v>0.3552312021577347</v>
       </c>
       <c r="P3">
-        <v>0.3329258271129591</v>
+        <v>0.3552312021577347</v>
       </c>
       <c r="Q3">
-        <v>0.2729189114544444</v>
+        <v>0.05297309051444444</v>
       </c>
       <c r="R3">
-        <v>2.45627020309</v>
+        <v>0.4767578146299999</v>
       </c>
       <c r="S3">
-        <v>0.3329258271129591</v>
+        <v>0.3552312021577347</v>
       </c>
       <c r="T3">
-        <v>0.3329258271129591</v>
+        <v>0.3552312021577347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1832233333333333</v>
+        <v>0.03556333333333333</v>
       </c>
       <c r="H4">
-        <v>0.54967</v>
+        <v>0.10669</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.321962666666667</v>
+        <v>1.431300333333333</v>
       </c>
       <c r="N4">
-        <v>3.965888</v>
+        <v>4.293901</v>
       </c>
       <c r="O4">
-        <v>0.295470296052313</v>
+        <v>0.3413414487663211</v>
       </c>
       <c r="P4">
-        <v>0.295470296052313</v>
+        <v>0.3413414487663211</v>
       </c>
       <c r="Q4">
-        <v>0.2422144063288889</v>
+        <v>0.05090181085444444</v>
       </c>
       <c r="R4">
-        <v>2.17992965696</v>
+        <v>0.45811629769</v>
       </c>
       <c r="S4">
-        <v>0.295470296052313</v>
+        <v>0.3413414487663211</v>
       </c>
       <c r="T4">
-        <v>0.295470296052313</v>
+        <v>0.3413414487663211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,55 +714,55 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.03556333333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.10669</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.1832233333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.54967</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.7856523333333335</v>
+        <v>0.4181246666666666</v>
       </c>
       <c r="N5">
-        <v>2.356957</v>
+        <v>1.254374</v>
       </c>
       <c r="O5">
-        <v>0.1756002142704412</v>
+        <v>0.09971581516546497</v>
       </c>
       <c r="P5">
-        <v>0.1756002142704412</v>
+        <v>0.09971581516546497</v>
       </c>
       <c r="Q5">
-        <v>0.1439498393544445</v>
+        <v>0.01486990689555555</v>
       </c>
       <c r="R5">
-        <v>1.29554855419</v>
+        <v>0.13382916206</v>
       </c>
       <c r="S5">
-        <v>0.1756002142704412</v>
+        <v>0.09971581516546497</v>
       </c>
       <c r="T5">
-        <v>0.1756002142704412</v>
+        <v>0.09971581516546497</v>
       </c>
     </row>
   </sheetData>
